--- a/Code/Results/Cases/Case_1_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9848333035615557</v>
+        <v>1.02447107144795</v>
       </c>
       <c r="D2">
-        <v>1.026128517146945</v>
+        <v>1.03142051084628</v>
       </c>
       <c r="E2">
-        <v>0.9931987914656678</v>
+        <v>1.024933484179309</v>
       </c>
       <c r="F2">
-        <v>0.9608646303423024</v>
+        <v>1.022953973049677</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042474527372395</v>
+        <v>1.033668293642911</v>
       </c>
       <c r="J2">
-        <v>1.007477308426725</v>
+        <v>1.029645501202792</v>
       </c>
       <c r="K2">
-        <v>1.037235456856626</v>
+        <v>1.034228679803083</v>
       </c>
       <c r="L2">
-        <v>1.004753698244875</v>
+        <v>1.027760533228763</v>
       </c>
       <c r="M2">
-        <v>0.972897518175533</v>
+        <v>1.025786835219658</v>
       </c>
       <c r="N2">
-        <v>1.006051136591022</v>
+        <v>1.01385080037022</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9911028401763702</v>
+        <v>1.025701623551068</v>
       </c>
       <c r="D3">
-        <v>1.029110433611928</v>
+        <v>1.031995083186469</v>
       </c>
       <c r="E3">
-        <v>0.9983197388583175</v>
+        <v>1.025985973084647</v>
       </c>
       <c r="F3">
-        <v>0.96998245575777</v>
+        <v>1.024825367792706</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044345038349378</v>
+        <v>1.033947218055538</v>
       </c>
       <c r="J3">
-        <v>1.011839024760157</v>
+        <v>1.03051352114588</v>
       </c>
       <c r="K3">
-        <v>1.039383911896791</v>
+        <v>1.03461243975731</v>
       </c>
       <c r="L3">
-        <v>1.008974164181699</v>
+        <v>1.028619551724816</v>
       </c>
       <c r="M3">
-        <v>0.9810143920531467</v>
+        <v>1.027462103305554</v>
       </c>
       <c r="N3">
-        <v>1.007548100076405</v>
+        <v>1.01414439183759</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9950402531405063</v>
+        <v>1.026496591638564</v>
       </c>
       <c r="D4">
-        <v>1.030990694062205</v>
+        <v>1.032366315163305</v>
       </c>
       <c r="E4">
-        <v>1.001542106771517</v>
+        <v>1.026666233498146</v>
       </c>
       <c r="F4">
-        <v>0.9756951672578409</v>
+        <v>1.026034688194842</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045507224138582</v>
+        <v>1.034125765638977</v>
       </c>
       <c r="J4">
-        <v>1.014571686319951</v>
+        <v>1.031073450099932</v>
       </c>
       <c r="K4">
-        <v>1.040728940858913</v>
+        <v>1.034859503943135</v>
       </c>
       <c r="L4">
-        <v>1.011621955487626</v>
+        <v>1.02917403378132</v>
       </c>
       <c r="M4">
-        <v>0.9860960598483361</v>
+        <v>1.028544118149551</v>
       </c>
       <c r="N4">
-        <v>1.008485454758796</v>
+        <v>1.014333618873426</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9966684893104709</v>
+        <v>1.026830494331151</v>
       </c>
       <c r="D5">
-        <v>1.031769860183109</v>
+        <v>1.0325222482718</v>
       </c>
       <c r="E5">
-        <v>1.002876091673374</v>
+        <v>1.026952033929406</v>
       </c>
       <c r="F5">
-        <v>0.9780548416414654</v>
+        <v>1.026542716971301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045984739598899</v>
+        <v>1.034200364694013</v>
       </c>
       <c r="J5">
-        <v>1.015700120265204</v>
+        <v>1.031308431735906</v>
       </c>
       <c r="K5">
-        <v>1.04128401614424</v>
+        <v>1.034963069918667</v>
       </c>
       <c r="L5">
-        <v>1.012716196097214</v>
+        <v>1.029406815572278</v>
       </c>
       <c r="M5">
-        <v>0.9881940887580064</v>
+        <v>1.028998530876138</v>
       </c>
       <c r="N5">
-        <v>1.008872392720677</v>
+        <v>1.014412992359335</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9969403331056569</v>
+        <v>1.026886540500582</v>
       </c>
       <c r="D6">
-        <v>1.031900036825959</v>
+        <v>1.032548422337958</v>
       </c>
       <c r="E6">
-        <v>1.00309889125371</v>
+        <v>1.027000010559862</v>
       </c>
       <c r="F6">
-        <v>0.9784486592983614</v>
+        <v>1.026627995940887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046064280255095</v>
+        <v>1.034212863118062</v>
       </c>
       <c r="J6">
-        <v>1.015888424278433</v>
+        <v>1.031347862101093</v>
       </c>
       <c r="K6">
-        <v>1.041376619392687</v>
+        <v>1.034980441533296</v>
       </c>
       <c r="L6">
-        <v>1.012898843950211</v>
+        <v>1.029445881842342</v>
       </c>
       <c r="M6">
-        <v>0.9885441795530895</v>
+        <v>1.029074801758704</v>
       </c>
       <c r="N6">
-        <v>1.00893695340965</v>
+        <v>1.014426309136439</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9950621140791035</v>
+        <v>1.026501054442895</v>
       </c>
       <c r="D7">
-        <v>1.031001149078181</v>
+        <v>1.032368399271064</v>
       </c>
       <c r="E7">
-        <v>1.001560011435201</v>
+        <v>1.026670053084756</v>
       </c>
       <c r="F7">
-        <v>0.9757268586075497</v>
+        <v>1.026041477936364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045513647628366</v>
+        <v>1.03412676425079</v>
       </c>
       <c r="J7">
-        <v>1.014586843207239</v>
+        <v>1.031076591552486</v>
       </c>
       <c r="K7">
-        <v>1.040736398015633</v>
+        <v>1.034860888974301</v>
       </c>
       <c r="L7">
-        <v>1.011636649738492</v>
+        <v>1.02917714548614</v>
       </c>
       <c r="M7">
-        <v>0.986124241176204</v>
+        <v>1.02855019185285</v>
       </c>
       <c r="N7">
-        <v>1.008490652586011</v>
+        <v>1.014334680162171</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9869778091575313</v>
+        <v>1.024887210564433</v>
       </c>
       <c r="D8">
-        <v>1.027146774497216</v>
+        <v>1.031614805125333</v>
       </c>
       <c r="E8">
-        <v>0.9949490474643461</v>
+        <v>1.025289339257719</v>
       </c>
       <c r="F8">
-        <v>0.963986593463571</v>
+        <v>1.023586758111499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043116938246287</v>
+        <v>1.033762958708242</v>
       </c>
       <c r="J8">
-        <v>1.008970621353716</v>
+        <v>1.029939214634781</v>
       </c>
       <c r="K8">
-        <v>1.037971164489744</v>
+        <v>1.034358633230645</v>
       </c>
       <c r="L8">
-        <v>1.006197874613249</v>
+        <v>1.028051126158818</v>
       </c>
       <c r="M8">
-        <v>0.9756775450162716</v>
+        <v>1.026353420030517</v>
       </c>
       <c r="N8">
-        <v>1.006563747893524</v>
+        <v>1.013950176167713</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9717412977985987</v>
+        <v>1.02203337743018</v>
       </c>
       <c r="D9">
-        <v>1.019953304523789</v>
+        <v>1.03028262605436</v>
       </c>
       <c r="E9">
-        <v>0.9825440284790357</v>
+        <v>1.022850293673801</v>
       </c>
       <c r="F9">
-        <v>0.9417211545294524</v>
+        <v>1.019248418977741</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03850168948719</v>
+        <v>1.033107023180064</v>
       </c>
       <c r="J9">
-        <v>0.9983329843179412</v>
+        <v>1.027921538457864</v>
       </c>
       <c r="K9">
-        <v>1.032730740664217</v>
+        <v>1.033463968140149</v>
       </c>
       <c r="L9">
-        <v>0.9959268113700428</v>
+        <v>1.026056372749567</v>
       </c>
       <c r="M9">
-        <v>0.9558362664659555</v>
+        <v>1.022466628706994</v>
       </c>
       <c r="N9">
-        <v>1.002910574249286</v>
+        <v>1.013266865649747</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9607962658255029</v>
+        <v>1.020123765121997</v>
       </c>
       <c r="D10">
-        <v>1.014849212389347</v>
+        <v>1.029391643866302</v>
       </c>
       <c r="E10">
-        <v>0.9736758641974119</v>
+        <v>1.021219979060958</v>
       </c>
       <c r="F10">
-        <v>0.9255841559724109</v>
+        <v>1.016346771854904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035124771377989</v>
+        <v>1.032659677651599</v>
       </c>
       <c r="J10">
-        <v>0.9906565370620012</v>
+        <v>1.026567133676163</v>
       </c>
       <c r="K10">
-        <v>1.0289554375437</v>
+        <v>1.032861020673652</v>
       </c>
       <c r="L10">
-        <v>0.9885372508406097</v>
+        <v>1.02471922960314</v>
       </c>
       <c r="M10">
-        <v>0.9414408870659299</v>
+        <v>1.019864090712372</v>
       </c>
       <c r="N10">
-        <v>1.000273061296753</v>
+        <v>1.012807378268729</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9558381320639112</v>
+        <v>1.019295138101574</v>
       </c>
       <c r="D11">
-        <v>1.012555839555012</v>
+        <v>1.029005157377736</v>
       </c>
       <c r="E11">
-        <v>0.969670153436497</v>
+        <v>1.020512969751384</v>
       </c>
       <c r="F11">
-        <v>0.9182267393300632</v>
+        <v>1.015087911529232</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033581672437791</v>
+        <v>1.032463572783711</v>
       </c>
       <c r="J11">
-        <v>0.9871709252354638</v>
+        <v>1.025978406808027</v>
       </c>
       <c r="K11">
-        <v>1.027244793025108</v>
+        <v>1.032598387161516</v>
       </c>
       <c r="L11">
-        <v>0.9851876453168953</v>
+        <v>1.02413845210242</v>
       </c>
       <c r="M11">
-        <v>0.9348751635436544</v>
+        <v>1.018734311259047</v>
       </c>
       <c r="N11">
-        <v>0.99907542096848</v>
+        <v>1.012607462886422</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9539603818859171</v>
+        <v>1.018987079733857</v>
       </c>
       <c r="D12">
-        <v>1.011690470720359</v>
+        <v>1.028861495810833</v>
       </c>
       <c r="E12">
-        <v>0.96815498027941</v>
+        <v>1.020250189593162</v>
       </c>
       <c r="F12">
-        <v>0.9154318472903124</v>
+        <v>1.014619934364593</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032995381754545</v>
+        <v>1.032390368616288</v>
       </c>
       <c r="J12">
-        <v>0.9858496319394141</v>
+        <v>1.025759383232352</v>
       </c>
       <c r="K12">
-        <v>1.026597075438444</v>
+        <v>1.032500599244317</v>
       </c>
       <c r="L12">
-        <v>0.983918813797048</v>
+        <v>1.02392245309654</v>
       </c>
       <c r="M12">
-        <v>0.9323807888212393</v>
+        <v>1.018314216728585</v>
       </c>
       <c r="N12">
-        <v>0.9986214500903935</v>
+        <v>1.012533060609215</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9543648546362696</v>
+        <v>1.019053171589395</v>
       </c>
       <c r="D13">
-        <v>1.011876724055929</v>
+        <v>1.028892316383419</v>
       </c>
       <c r="E13">
-        <v>0.9684812660775095</v>
+        <v>1.020306564384579</v>
       </c>
       <c r="F13">
-        <v>0.916034282385242</v>
+        <v>1.014720334520566</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033121753580493</v>
+        <v>1.032406087565333</v>
       </c>
       <c r="J13">
-        <v>0.9861342972167062</v>
+        <v>1.025806380182569</v>
       </c>
       <c r="K13">
-        <v>1.026736585905815</v>
+        <v>1.032521585692353</v>
       </c>
       <c r="L13">
-        <v>0.9841921348445182</v>
+        <v>1.023968798008758</v>
       </c>
       <c r="M13">
-        <v>0.9329184557245777</v>
+        <v>1.018404348754992</v>
       </c>
       <c r="N13">
-        <v>0.9987192542842535</v>
+        <v>1.012549026725979</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.955683672752849</v>
+        <v>1.019269679432127</v>
       </c>
       <c r="D14">
-        <v>1.01248458971279</v>
+        <v>1.02899328437653</v>
       </c>
       <c r="E14">
-        <v>0.9695454800581333</v>
+        <v>1.020491251661206</v>
       </c>
       <c r="F14">
-        <v>0.9179970187951477</v>
+        <v>1.015049236241461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03353348307987</v>
+        <v>1.032457529098583</v>
       </c>
       <c r="J14">
-        <v>0.9870622634377261</v>
+        <v>1.025960309299167</v>
       </c>
       <c r="K14">
-        <v>1.027191509238693</v>
+        <v>1.032590308762655</v>
       </c>
       <c r="L14">
-        <v>0.9850832792920896</v>
+        <v>1.02412060313763</v>
       </c>
       <c r="M14">
-        <v>0.9346701471889641</v>
+        <v>1.018699595255574</v>
       </c>
       <c r="N14">
-        <v>0.9990380863260753</v>
+        <v>1.012601315733234</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9564913560081599</v>
+        <v>1.019403041177354</v>
       </c>
       <c r="D15">
-        <v>1.0128572937031</v>
+        <v>1.029055480394417</v>
       </c>
       <c r="E15">
-        <v>0.970197486647148</v>
+        <v>1.020605021537963</v>
       </c>
       <c r="F15">
-        <v>0.9191978971241679</v>
+        <v>1.015251832572096</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033785394150593</v>
+        <v>1.032489175905027</v>
       </c>
       <c r="J15">
-        <v>0.9876304174201956</v>
+        <v>1.026055104360484</v>
       </c>
       <c r="K15">
-        <v>1.027470142437309</v>
+        <v>1.032632620265459</v>
       </c>
       <c r="L15">
-        <v>0.9856290092644606</v>
+        <v>1.024214099070867</v>
       </c>
       <c r="M15">
-        <v>0.9357418745243873</v>
+        <v>1.018881447096683</v>
       </c>
       <c r="N15">
-        <v>0.9992332968676301</v>
+        <v>1.01263351348556</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9611204468616698</v>
+        <v>1.020178720927146</v>
       </c>
       <c r="D16">
-        <v>1.014999579456805</v>
+        <v>1.029417279236453</v>
       </c>
       <c r="E16">
-        <v>0.9739380229898937</v>
+        <v>1.021266877980345</v>
       </c>
       <c r="F16">
-        <v>0.9260641221178856</v>
+        <v>1.016430265784678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035225398573779</v>
+        <v>1.032672641780984</v>
       </c>
       <c r="J16">
-        <v>0.9908842711893545</v>
+        <v>1.02660615752138</v>
       </c>
       <c r="K16">
-        <v>1.029067293699271</v>
+        <v>1.03287841800346</v>
       </c>
       <c r="L16">
-        <v>0.9887562210614257</v>
+        <v>1.024757735921394</v>
       </c>
       <c r="M16">
-        <v>0.9418691680499591</v>
+        <v>1.019939008938529</v>
       </c>
       <c r="N16">
-        <v>1.000351310995766</v>
+        <v>1.012820625766417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9639634370170742</v>
+        <v>1.020664810888749</v>
       </c>
       <c r="D17">
-        <v>1.016320421723749</v>
+        <v>1.029644042396791</v>
       </c>
       <c r="E17">
-        <v>0.9762384152365338</v>
+        <v>1.021681752915892</v>
       </c>
       <c r="F17">
-        <v>0.9302678356914035</v>
+        <v>1.017168804788954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036106383573003</v>
+        <v>1.032787081255694</v>
       </c>
       <c r="J17">
-        <v>0.9928805267113094</v>
+        <v>1.026951210159254</v>
       </c>
       <c r="K17">
-        <v>1.030048220630831</v>
+        <v>1.033032184033222</v>
       </c>
       <c r="L17">
-        <v>0.9906763056931842</v>
+        <v>1.02509826399079</v>
       </c>
       <c r="M17">
-        <v>0.9456199514541215</v>
+        <v>1.020601613134481</v>
       </c>
       <c r="N17">
-        <v>1.001037225320593</v>
+        <v>1.012937739856482</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9656008260833975</v>
+        <v>1.02094817028703</v>
       </c>
       <c r="D18">
-        <v>1.017082886606738</v>
+        <v>1.029776243411735</v>
       </c>
       <c r="E18">
-        <v>0.9775643805944182</v>
+        <v>1.021923639277806</v>
       </c>
       <c r="F18">
-        <v>0.9326845766356304</v>
+        <v>1.017599348892629</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036612516181619</v>
+        <v>1.032853600264978</v>
       </c>
       <c r="J18">
-        <v>0.9940294821106261</v>
+        <v>1.027152255715688</v>
       </c>
       <c r="K18">
-        <v>1.030613121293745</v>
+        <v>1.033121723341958</v>
       </c>
       <c r="L18">
-        <v>0.9917819557367777</v>
+        <v>1.025296716238824</v>
       </c>
       <c r="M18">
-        <v>0.9477760689162437</v>
+        <v>1.020987823631193</v>
       </c>
       <c r="N18">
-        <v>1.001432001839027</v>
+        <v>1.013005958543906</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9661556819513397</v>
+        <v>1.021044760097263</v>
       </c>
       <c r="D19">
-        <v>1.017341545446772</v>
+        <v>1.02982130933852</v>
       </c>
       <c r="E19">
-        <v>0.9780138849059289</v>
+        <v>1.02200609890663</v>
       </c>
       <c r="F19">
-        <v>0.9335028290591011</v>
+        <v>1.017746114220706</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036783810162759</v>
+        <v>1.032876242284154</v>
       </c>
       <c r="J19">
-        <v>0.9944186940453014</v>
+        <v>1.02722077024781</v>
       </c>
       <c r="K19">
-        <v>1.030804532283076</v>
+        <v>1.033152228543966</v>
       </c>
       <c r="L19">
-        <v>0.9921565874683067</v>
+        <v>1.025364354273629</v>
       </c>
       <c r="M19">
-        <v>0.9485060375785007</v>
+        <v>1.021119465151074</v>
       </c>
       <c r="N19">
-        <v>1.001565731954764</v>
+        <v>1.013029203794849</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9636605923723452</v>
+        <v>1.020612675526582</v>
       </c>
       <c r="D20">
-        <v>1.016179537985571</v>
+        <v>1.029619719695577</v>
       </c>
       <c r="E20">
-        <v>0.9759932567915202</v>
+        <v>1.021637251465309</v>
       </c>
       <c r="F20">
-        <v>0.9298205026117178</v>
+        <v>1.017089590780157</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036012668423986</v>
+        <v>1.032774826948616</v>
       </c>
       <c r="J20">
-        <v>0.9926679585815855</v>
+        <v>1.026914211839992</v>
       </c>
       <c r="K20">
-        <v>1.029943733255742</v>
+        <v>1.033015701895577</v>
       </c>
       <c r="L20">
-        <v>0.9904717925724975</v>
+        <v>1.025061746374606</v>
       </c>
       <c r="M20">
-        <v>0.9452208395799542</v>
+        <v>1.02053055055622</v>
       </c>
       <c r="N20">
-        <v>1.000964187173294</v>
+        <v>1.012925184147613</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9552963375967695</v>
+        <v>1.019205930755014</v>
       </c>
       <c r="D21">
-        <v>1.01230597001317</v>
+        <v>1.028963554672719</v>
       </c>
       <c r="E21">
-        <v>0.9692328692142647</v>
+        <v>1.020436870462776</v>
       </c>
       <c r="F21">
-        <v>0.9174208107968883</v>
+        <v>1.014952393509004</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033412609483203</v>
+        <v>1.032442390855281</v>
       </c>
       <c r="J21">
-        <v>0.9867897544035462</v>
+        <v>1.025914990549517</v>
       </c>
       <c r="K21">
-        <v>1.027057893302807</v>
+        <v>1.03257007800098</v>
       </c>
       <c r="L21">
-        <v>0.9848215581905397</v>
+        <v>1.024075907863087</v>
       </c>
       <c r="M21">
-        <v>0.9341559015267165</v>
+        <v>1.018612664893065</v>
       </c>
       <c r="N21">
-        <v>0.9989444565139362</v>
+        <v>1.012585921932686</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9498267235816684</v>
+        <v>1.018319892751945</v>
       </c>
       <c r="D22">
-        <v>1.009791751580889</v>
+        <v>1.028550399977765</v>
       </c>
       <c r="E22">
-        <v>0.964823110849628</v>
+        <v>1.019681184037032</v>
       </c>
       <c r="F22">
-        <v>0.9092618067795437</v>
+        <v>1.013606444111978</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031701385648147</v>
+        <v>1.032231279492179</v>
       </c>
       <c r="J22">
-        <v>0.9829387055058799</v>
+        <v>1.025284746713374</v>
       </c>
       <c r="K22">
-        <v>1.025171696030465</v>
+        <v>1.032288541528139</v>
       </c>
       <c r="L22">
-        <v>0.9811251914188618</v>
+        <v>1.02345449407613</v>
       </c>
       <c r="M22">
-        <v>0.9268739200846257</v>
+        <v>1.017404237407393</v>
       </c>
       <c r="N22">
-        <v>0.997621377533813</v>
+        <v>1.012371775808616</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9527474311133618</v>
+        <v>1.018789748358567</v>
       </c>
       <c r="D23">
-        <v>1.011132421497091</v>
+        <v>1.028769477865399</v>
       </c>
       <c r="E23">
-        <v>0.9671767855849829</v>
+        <v>1.020081880087541</v>
       </c>
       <c r="F23">
-        <v>0.9136238752810323</v>
+        <v>1.014320171956746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032616145400835</v>
+        <v>1.032343392703938</v>
       </c>
       <c r="J23">
-        <v>0.9849957867163894</v>
+        <v>1.025619041416105</v>
       </c>
       <c r="K23">
-        <v>1.026178742392945</v>
+        <v>1.032437918045458</v>
       </c>
       <c r="L23">
-        <v>0.983099131747606</v>
+        <v>1.023784068237545</v>
       </c>
       <c r="M23">
-        <v>0.930767171130267</v>
+        <v>1.018045096609844</v>
       </c>
       <c r="N23">
-        <v>0.9983280941533365</v>
+        <v>1.01248537868207</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9637974991178163</v>
+        <v>1.020636233773258</v>
       </c>
       <c r="D24">
-        <v>1.016243221808359</v>
+        <v>1.029630710281632</v>
       </c>
       <c r="E24">
-        <v>0.9761040820367242</v>
+        <v>1.02165736007378</v>
       </c>
       <c r="F24">
-        <v>0.9300227415234258</v>
+        <v>1.017125384900007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036055038085882</v>
+        <v>1.032780364858041</v>
       </c>
       <c r="J24">
-        <v>0.9927640564732647</v>
+        <v>1.026930930460541</v>
       </c>
       <c r="K24">
-        <v>1.029990968964066</v>
+        <v>1.033023149927026</v>
       </c>
       <c r="L24">
-        <v>0.9905642472921256</v>
+        <v>1.025078247644677</v>
       </c>
       <c r="M24">
-        <v>0.9454012784527888</v>
+        <v>1.020562661525793</v>
       </c>
       <c r="N24">
-        <v>1.000997206308044</v>
+        <v>1.012930857816101</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9758093200987923</v>
+        <v>1.022772382587767</v>
       </c>
       <c r="D25">
-        <v>1.021864270493648</v>
+        <v>1.030627530378984</v>
       </c>
       <c r="E25">
-        <v>0.9858491970214317</v>
+        <v>1.023481584596491</v>
       </c>
       <c r="F25">
-        <v>0.9476863047597639</v>
+        <v>1.020371584454204</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039744787935601</v>
+        <v>1.033278365943057</v>
       </c>
       <c r="J25">
-        <v>1.001179152935916</v>
+        <v>1.028444776133628</v>
       </c>
       <c r="K25">
-        <v>1.034132394959093</v>
+        <v>1.033696404487448</v>
       </c>
       <c r="L25">
-        <v>0.9986712312279877</v>
+        <v>1.026573337144058</v>
       </c>
       <c r="M25">
-        <v>0.9611549074890905</v>
+        <v>1.023473403583669</v>
       </c>
       <c r="N25">
-        <v>1.003888300117506</v>
+        <v>1.013444208253709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02447107144795</v>
+        <v>0.9848333035615556</v>
       </c>
       <c r="D2">
-        <v>1.03142051084628</v>
+        <v>1.026128517146945</v>
       </c>
       <c r="E2">
-        <v>1.024933484179309</v>
+        <v>0.9931987914656677</v>
       </c>
       <c r="F2">
-        <v>1.022953973049677</v>
+        <v>0.9608646303423025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033668293642911</v>
+        <v>1.042474527372395</v>
       </c>
       <c r="J2">
-        <v>1.029645501202792</v>
+        <v>1.007477308426725</v>
       </c>
       <c r="K2">
-        <v>1.034228679803083</v>
+        <v>1.037235456856626</v>
       </c>
       <c r="L2">
-        <v>1.027760533228763</v>
+        <v>1.004753698244875</v>
       </c>
       <c r="M2">
-        <v>1.025786835219658</v>
+        <v>0.9728975181755332</v>
       </c>
       <c r="N2">
-        <v>1.01385080037022</v>
+        <v>1.006051136591023</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025701623551068</v>
+        <v>0.99110284017637</v>
       </c>
       <c r="D3">
-        <v>1.031995083186469</v>
+        <v>1.029110433611927</v>
       </c>
       <c r="E3">
-        <v>1.025985973084647</v>
+        <v>0.9983197388583172</v>
       </c>
       <c r="F3">
-        <v>1.024825367792706</v>
+        <v>0.9699824557577701</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033947218055538</v>
+        <v>1.044345038349377</v>
       </c>
       <c r="J3">
-        <v>1.03051352114588</v>
+        <v>1.011839024760157</v>
       </c>
       <c r="K3">
-        <v>1.03461243975731</v>
+        <v>1.03938391189679</v>
       </c>
       <c r="L3">
-        <v>1.028619551724816</v>
+        <v>1.008974164181699</v>
       </c>
       <c r="M3">
-        <v>1.027462103305554</v>
+        <v>0.9810143920531466</v>
       </c>
       <c r="N3">
-        <v>1.01414439183759</v>
+        <v>1.007548100076405</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026496591638564</v>
+        <v>0.9950402531405056</v>
       </c>
       <c r="D4">
-        <v>1.032366315163305</v>
+        <v>1.030990694062204</v>
       </c>
       <c r="E4">
-        <v>1.026666233498146</v>
+        <v>1.001542106771517</v>
       </c>
       <c r="F4">
-        <v>1.026034688194842</v>
+        <v>0.9756951672578399</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034125765638977</v>
+        <v>1.045507224138581</v>
       </c>
       <c r="J4">
-        <v>1.031073450099932</v>
+        <v>1.01457168631995</v>
       </c>
       <c r="K4">
-        <v>1.034859503943135</v>
+        <v>1.040728940858912</v>
       </c>
       <c r="L4">
-        <v>1.02917403378132</v>
+        <v>1.011621955487625</v>
       </c>
       <c r="M4">
-        <v>1.028544118149551</v>
+        <v>0.986096059848335</v>
       </c>
       <c r="N4">
-        <v>1.014333618873426</v>
+        <v>1.008485454758796</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026830494331151</v>
+        <v>0.9966684893104701</v>
       </c>
       <c r="D5">
-        <v>1.0325222482718</v>
+        <v>1.031769860183109</v>
       </c>
       <c r="E5">
-        <v>1.026952033929406</v>
+        <v>1.002876091673373</v>
       </c>
       <c r="F5">
-        <v>1.026542716971301</v>
+        <v>0.9780548416414647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034200364694013</v>
+        <v>1.045984739598899</v>
       </c>
       <c r="J5">
-        <v>1.031308431735906</v>
+        <v>1.015700120265203</v>
       </c>
       <c r="K5">
-        <v>1.034963069918667</v>
+        <v>1.04128401614424</v>
       </c>
       <c r="L5">
-        <v>1.029406815572278</v>
+        <v>1.012716196097214</v>
       </c>
       <c r="M5">
-        <v>1.028998530876138</v>
+        <v>0.9881940887580056</v>
       </c>
       <c r="N5">
-        <v>1.014412992359335</v>
+        <v>1.008872392720677</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026886540500582</v>
+        <v>0.9969403331056567</v>
       </c>
       <c r="D6">
-        <v>1.032548422337958</v>
+        <v>1.031900036825959</v>
       </c>
       <c r="E6">
-        <v>1.027000010559862</v>
+        <v>1.00309889125371</v>
       </c>
       <c r="F6">
-        <v>1.026627995940887</v>
+        <v>0.978448659298361</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034212863118062</v>
+        <v>1.046064280255095</v>
       </c>
       <c r="J6">
-        <v>1.031347862101093</v>
+        <v>1.015888424278432</v>
       </c>
       <c r="K6">
-        <v>1.034980441533296</v>
+        <v>1.041376619392686</v>
       </c>
       <c r="L6">
-        <v>1.029445881842342</v>
+        <v>1.012898843950211</v>
       </c>
       <c r="M6">
-        <v>1.029074801758704</v>
+        <v>0.988544179553089</v>
       </c>
       <c r="N6">
-        <v>1.014426309136439</v>
+        <v>1.00893695340965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026501054442895</v>
+        <v>0.9950621140791035</v>
       </c>
       <c r="D7">
-        <v>1.032368399271064</v>
+        <v>1.031001149078181</v>
       </c>
       <c r="E7">
-        <v>1.026670053084756</v>
+        <v>1.001560011435201</v>
       </c>
       <c r="F7">
-        <v>1.026041477936364</v>
+        <v>0.9757268586075498</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03412676425079</v>
+        <v>1.045513647628365</v>
       </c>
       <c r="J7">
-        <v>1.031076591552486</v>
+        <v>1.014586843207239</v>
       </c>
       <c r="K7">
-        <v>1.034860888974301</v>
+        <v>1.040736398015633</v>
       </c>
       <c r="L7">
-        <v>1.02917714548614</v>
+        <v>1.011636649738492</v>
       </c>
       <c r="M7">
-        <v>1.02855019185285</v>
+        <v>0.9861242411762042</v>
       </c>
       <c r="N7">
-        <v>1.014334680162171</v>
+        <v>1.008490652586011</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024887210564433</v>
+        <v>0.9869778091575306</v>
       </c>
       <c r="D8">
-        <v>1.031614805125333</v>
+        <v>1.027146774497216</v>
       </c>
       <c r="E8">
-        <v>1.025289339257719</v>
+        <v>0.9949490474643451</v>
       </c>
       <c r="F8">
-        <v>1.023586758111499</v>
+        <v>0.9639865934635702</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033762958708242</v>
+        <v>1.043116938246287</v>
       </c>
       <c r="J8">
-        <v>1.029939214634781</v>
+        <v>1.008970621353716</v>
       </c>
       <c r="K8">
-        <v>1.034358633230645</v>
+        <v>1.037971164489745</v>
       </c>
       <c r="L8">
-        <v>1.028051126158818</v>
+        <v>1.006197874613248</v>
       </c>
       <c r="M8">
-        <v>1.026353420030517</v>
+        <v>0.9756775450162711</v>
       </c>
       <c r="N8">
-        <v>1.013950176167713</v>
+        <v>1.006563747893524</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02203337743018</v>
+        <v>0.9717412977985984</v>
       </c>
       <c r="D9">
-        <v>1.03028262605436</v>
+        <v>1.019953304523789</v>
       </c>
       <c r="E9">
-        <v>1.022850293673801</v>
+        <v>0.982544028479035</v>
       </c>
       <c r="F9">
-        <v>1.019248418977741</v>
+        <v>0.9417211545294519</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033107023180064</v>
+        <v>1.03850168948719</v>
       </c>
       <c r="J9">
-        <v>1.027921538457864</v>
+        <v>0.9983329843179409</v>
       </c>
       <c r="K9">
-        <v>1.033463968140149</v>
+        <v>1.032730740664217</v>
       </c>
       <c r="L9">
-        <v>1.026056372749567</v>
+        <v>0.9959268113700422</v>
       </c>
       <c r="M9">
-        <v>1.022466628706994</v>
+        <v>0.9558362664659551</v>
       </c>
       <c r="N9">
-        <v>1.013266865649747</v>
+        <v>1.002910574249286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020123765121997</v>
+        <v>0.9607962658255038</v>
       </c>
       <c r="D10">
-        <v>1.029391643866302</v>
+        <v>1.014849212389348</v>
       </c>
       <c r="E10">
-        <v>1.021219979060958</v>
+        <v>0.9736758641974128</v>
       </c>
       <c r="F10">
-        <v>1.016346771854904</v>
+        <v>0.9255841559724123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032659677651599</v>
+        <v>1.03512477137799</v>
       </c>
       <c r="J10">
-        <v>1.026567133676163</v>
+        <v>0.9906565370620019</v>
       </c>
       <c r="K10">
-        <v>1.032861020673652</v>
+        <v>1.0289554375437</v>
       </c>
       <c r="L10">
-        <v>1.02471922960314</v>
+        <v>0.9885372508406106</v>
       </c>
       <c r="M10">
-        <v>1.019864090712372</v>
+        <v>0.9414408870659313</v>
       </c>
       <c r="N10">
-        <v>1.012807378268729</v>
+        <v>1.000273061296753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019295138101574</v>
+        <v>0.9558381320639103</v>
       </c>
       <c r="D11">
-        <v>1.029005157377736</v>
+        <v>1.012555839555011</v>
       </c>
       <c r="E11">
-        <v>1.020512969751384</v>
+        <v>0.969670153436496</v>
       </c>
       <c r="F11">
-        <v>1.015087911529232</v>
+        <v>0.9182267393300628</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032463572783711</v>
+        <v>1.03358167243779</v>
       </c>
       <c r="J11">
-        <v>1.025978406808027</v>
+        <v>0.9871709252354631</v>
       </c>
       <c r="K11">
-        <v>1.032598387161516</v>
+        <v>1.027244793025107</v>
       </c>
       <c r="L11">
-        <v>1.02413845210242</v>
+        <v>0.9851876453168943</v>
       </c>
       <c r="M11">
-        <v>1.018734311259047</v>
+        <v>0.9348751635436541</v>
       </c>
       <c r="N11">
-        <v>1.012607462886422</v>
+        <v>0.9990754209684798</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018987079733857</v>
+        <v>0.9539603818859166</v>
       </c>
       <c r="D12">
-        <v>1.028861495810833</v>
+        <v>1.011690470720359</v>
       </c>
       <c r="E12">
-        <v>1.020250189593162</v>
+        <v>0.9681549802794095</v>
       </c>
       <c r="F12">
-        <v>1.014619934364593</v>
+        <v>0.9154318472903119</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032390368616288</v>
+        <v>1.032995381754545</v>
       </c>
       <c r="J12">
-        <v>1.025759383232352</v>
+        <v>0.9858496319394137</v>
       </c>
       <c r="K12">
-        <v>1.032500599244317</v>
+        <v>1.026597075438444</v>
       </c>
       <c r="L12">
-        <v>1.02392245309654</v>
+        <v>0.9839188137970474</v>
       </c>
       <c r="M12">
-        <v>1.018314216728585</v>
+        <v>0.932380788821239</v>
       </c>
       <c r="N12">
-        <v>1.012533060609215</v>
+        <v>0.9986214500903933</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019053171589395</v>
+        <v>0.9543648546362692</v>
       </c>
       <c r="D13">
-        <v>1.028892316383419</v>
+        <v>1.011876724055929</v>
       </c>
       <c r="E13">
-        <v>1.020306564384579</v>
+        <v>0.968481266077509</v>
       </c>
       <c r="F13">
-        <v>1.014720334520566</v>
+        <v>0.9160342823852418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032406087565333</v>
+        <v>1.033121753580493</v>
       </c>
       <c r="J13">
-        <v>1.025806380182569</v>
+        <v>0.9861342972167059</v>
       </c>
       <c r="K13">
-        <v>1.032521585692353</v>
+        <v>1.026736585905815</v>
       </c>
       <c r="L13">
-        <v>1.023968798008758</v>
+        <v>0.9841921348445176</v>
       </c>
       <c r="M13">
-        <v>1.018404348754992</v>
+        <v>0.9329184557245775</v>
       </c>
       <c r="N13">
-        <v>1.012549026725979</v>
+        <v>0.9987192542842532</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019269679432127</v>
+        <v>0.9556836727528482</v>
       </c>
       <c r="D14">
-        <v>1.02899328437653</v>
+        <v>1.01248458971279</v>
       </c>
       <c r="E14">
-        <v>1.020491251661206</v>
+        <v>0.9695454800581326</v>
       </c>
       <c r="F14">
-        <v>1.015049236241461</v>
+        <v>0.9179970187951465</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032457529098583</v>
+        <v>1.033533483079869</v>
       </c>
       <c r="J14">
-        <v>1.025960309299167</v>
+        <v>0.9870622634377253</v>
       </c>
       <c r="K14">
-        <v>1.032590308762655</v>
+        <v>1.027191509238692</v>
       </c>
       <c r="L14">
-        <v>1.02412060313763</v>
+        <v>0.9850832792920887</v>
       </c>
       <c r="M14">
-        <v>1.018699595255574</v>
+        <v>0.934670147188963</v>
       </c>
       <c r="N14">
-        <v>1.012601315733234</v>
+        <v>0.9990380863260752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019403041177354</v>
+        <v>0.95649135600816</v>
       </c>
       <c r="D15">
-        <v>1.029055480394417</v>
+        <v>1.0128572937031</v>
       </c>
       <c r="E15">
-        <v>1.020605021537963</v>
+        <v>0.9701974866471481</v>
       </c>
       <c r="F15">
-        <v>1.015251832572096</v>
+        <v>0.9191978971241684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032489175905027</v>
+        <v>1.033785394150593</v>
       </c>
       <c r="J15">
-        <v>1.026055104360484</v>
+        <v>0.9876304174201959</v>
       </c>
       <c r="K15">
-        <v>1.032632620265459</v>
+        <v>1.02747014243731</v>
       </c>
       <c r="L15">
-        <v>1.024214099070867</v>
+        <v>0.9856290092644608</v>
       </c>
       <c r="M15">
-        <v>1.018881447096683</v>
+        <v>0.9357418745243877</v>
       </c>
       <c r="N15">
-        <v>1.01263351348556</v>
+        <v>0.9992332968676301</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020178720927146</v>
+        <v>0.9611204468616698</v>
       </c>
       <c r="D16">
-        <v>1.029417279236453</v>
+        <v>1.014999579456805</v>
       </c>
       <c r="E16">
-        <v>1.021266877980345</v>
+        <v>0.9739380229898933</v>
       </c>
       <c r="F16">
-        <v>1.016430265784678</v>
+        <v>0.9260641221178855</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032672641780984</v>
+        <v>1.035225398573779</v>
       </c>
       <c r="J16">
-        <v>1.02660615752138</v>
+        <v>0.9908842711893543</v>
       </c>
       <c r="K16">
-        <v>1.03287841800346</v>
+        <v>1.029067293699271</v>
       </c>
       <c r="L16">
-        <v>1.024757735921394</v>
+        <v>0.9887562210614254</v>
       </c>
       <c r="M16">
-        <v>1.019939008938529</v>
+        <v>0.9418691680499589</v>
       </c>
       <c r="N16">
-        <v>1.012820625766417</v>
+        <v>1.000351310995766</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020664810888749</v>
+        <v>0.9639634370170743</v>
       </c>
       <c r="D17">
-        <v>1.029644042396791</v>
+        <v>1.016320421723749</v>
       </c>
       <c r="E17">
-        <v>1.021681752915892</v>
+        <v>0.9762384152365338</v>
       </c>
       <c r="F17">
-        <v>1.017168804788954</v>
+        <v>0.9302678356914033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032787081255694</v>
+        <v>1.036106383573003</v>
       </c>
       <c r="J17">
-        <v>1.026951210159254</v>
+        <v>0.9928805267113096</v>
       </c>
       <c r="K17">
-        <v>1.033032184033222</v>
+        <v>1.03004822063083</v>
       </c>
       <c r="L17">
-        <v>1.02509826399079</v>
+        <v>0.9906763056931842</v>
       </c>
       <c r="M17">
-        <v>1.020601613134481</v>
+        <v>0.9456199514541214</v>
       </c>
       <c r="N17">
-        <v>1.012937739856482</v>
+        <v>1.001037225320593</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02094817028703</v>
+        <v>0.9656008260833983</v>
       </c>
       <c r="D18">
-        <v>1.029776243411735</v>
+        <v>1.017082886606739</v>
       </c>
       <c r="E18">
-        <v>1.021923639277806</v>
+        <v>0.9775643805944194</v>
       </c>
       <c r="F18">
-        <v>1.017599348892629</v>
+        <v>0.9326845766356314</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032853600264978</v>
+        <v>1.03661251618162</v>
       </c>
       <c r="J18">
-        <v>1.027152255715688</v>
+        <v>0.994029482110627</v>
       </c>
       <c r="K18">
-        <v>1.033121723341958</v>
+        <v>1.030613121293746</v>
       </c>
       <c r="L18">
-        <v>1.025296716238824</v>
+        <v>0.991781955736779</v>
       </c>
       <c r="M18">
-        <v>1.020987823631193</v>
+        <v>0.9477760689162448</v>
       </c>
       <c r="N18">
-        <v>1.013005958543906</v>
+        <v>1.001432001839027</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021044760097263</v>
+        <v>0.9661556819513399</v>
       </c>
       <c r="D19">
-        <v>1.02982130933852</v>
+        <v>1.017341545446772</v>
       </c>
       <c r="E19">
-        <v>1.02200609890663</v>
+        <v>0.9780138849059292</v>
       </c>
       <c r="F19">
-        <v>1.017746114220706</v>
+        <v>0.9335028290591012</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032876242284154</v>
+        <v>1.036783810162759</v>
       </c>
       <c r="J19">
-        <v>1.02722077024781</v>
+        <v>0.9944186940453015</v>
       </c>
       <c r="K19">
-        <v>1.033152228543966</v>
+        <v>1.030804532283077</v>
       </c>
       <c r="L19">
-        <v>1.025364354273629</v>
+        <v>0.9921565874683068</v>
       </c>
       <c r="M19">
-        <v>1.021119465151074</v>
+        <v>0.9485060375785008</v>
       </c>
       <c r="N19">
-        <v>1.013029203794849</v>
+        <v>1.001565731954764</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020612675526582</v>
+        <v>0.963660592372345</v>
       </c>
       <c r="D20">
-        <v>1.029619719695577</v>
+        <v>1.016179537985571</v>
       </c>
       <c r="E20">
-        <v>1.021637251465309</v>
+        <v>0.9759932567915202</v>
       </c>
       <c r="F20">
-        <v>1.017089590780157</v>
+        <v>0.9298205026117178</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032774826948616</v>
+        <v>1.036012668423985</v>
       </c>
       <c r="J20">
-        <v>1.026914211839992</v>
+        <v>0.9926679585815852</v>
       </c>
       <c r="K20">
-        <v>1.033015701895577</v>
+        <v>1.029943733255742</v>
       </c>
       <c r="L20">
-        <v>1.025061746374606</v>
+        <v>0.9904717925724974</v>
       </c>
       <c r="M20">
-        <v>1.02053055055622</v>
+        <v>0.9452208395799544</v>
       </c>
       <c r="N20">
-        <v>1.012925184147613</v>
+        <v>1.000964187173293</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019205930755014</v>
+        <v>0.9552963375967692</v>
       </c>
       <c r="D21">
-        <v>1.028963554672719</v>
+        <v>1.01230597001317</v>
       </c>
       <c r="E21">
-        <v>1.020436870462776</v>
+        <v>0.9692328692142645</v>
       </c>
       <c r="F21">
-        <v>1.014952393509004</v>
+        <v>0.9174208107968879</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032442390855281</v>
+        <v>1.033412609483203</v>
       </c>
       <c r="J21">
-        <v>1.025914990549517</v>
+        <v>0.9867897544035461</v>
       </c>
       <c r="K21">
-        <v>1.03257007800098</v>
+        <v>1.027057893302808</v>
       </c>
       <c r="L21">
-        <v>1.024075907863087</v>
+        <v>0.9848215581905396</v>
       </c>
       <c r="M21">
-        <v>1.018612664893065</v>
+        <v>0.9341559015267159</v>
       </c>
       <c r="N21">
-        <v>1.012585921932686</v>
+        <v>0.9989444565139362</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018319892751945</v>
+        <v>0.9498267235816675</v>
       </c>
       <c r="D22">
-        <v>1.028550399977765</v>
+        <v>1.009791751580888</v>
       </c>
       <c r="E22">
-        <v>1.019681184037032</v>
+        <v>0.9648231108496271</v>
       </c>
       <c r="F22">
-        <v>1.013606444111978</v>
+        <v>0.9092618067795436</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032231279492179</v>
+        <v>1.031701385648147</v>
       </c>
       <c r="J22">
-        <v>1.025284746713374</v>
+        <v>0.9829387055058794</v>
       </c>
       <c r="K22">
-        <v>1.032288541528139</v>
+        <v>1.025171696030465</v>
       </c>
       <c r="L22">
-        <v>1.02345449407613</v>
+        <v>0.9811251914188611</v>
       </c>
       <c r="M22">
-        <v>1.017404237407393</v>
+        <v>0.9268739200846255</v>
       </c>
       <c r="N22">
-        <v>1.012371775808616</v>
+        <v>0.9976213775338126</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018789748358567</v>
+        <v>0.9527474311133617</v>
       </c>
       <c r="D23">
-        <v>1.028769477865399</v>
+        <v>1.011132421497092</v>
       </c>
       <c r="E23">
-        <v>1.020081880087541</v>
+        <v>0.9671767855849824</v>
       </c>
       <c r="F23">
-        <v>1.014320171956746</v>
+        <v>0.9136238752810323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032343392703938</v>
+        <v>1.032616145400836</v>
       </c>
       <c r="J23">
-        <v>1.025619041416105</v>
+        <v>0.9849957867163893</v>
       </c>
       <c r="K23">
-        <v>1.032437918045458</v>
+        <v>1.026178742392945</v>
       </c>
       <c r="L23">
-        <v>1.023784068237545</v>
+        <v>0.9830991317476057</v>
       </c>
       <c r="M23">
-        <v>1.018045096609844</v>
+        <v>0.9307671711302667</v>
       </c>
       <c r="N23">
-        <v>1.01248537868207</v>
+        <v>0.9983280941533366</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020636233773258</v>
+        <v>0.9637974991178171</v>
       </c>
       <c r="D24">
-        <v>1.029630710281632</v>
+        <v>1.016243221808359</v>
       </c>
       <c r="E24">
-        <v>1.02165736007378</v>
+        <v>0.9761040820367248</v>
       </c>
       <c r="F24">
-        <v>1.017125384900007</v>
+        <v>0.930022741523426</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032780364858041</v>
+        <v>1.036055038085882</v>
       </c>
       <c r="J24">
-        <v>1.026930930460541</v>
+        <v>0.9927640564732652</v>
       </c>
       <c r="K24">
-        <v>1.033023149927026</v>
+        <v>1.029990968964066</v>
       </c>
       <c r="L24">
-        <v>1.025078247644677</v>
+        <v>0.9905642472921261</v>
       </c>
       <c r="M24">
-        <v>1.020562661525793</v>
+        <v>0.9454012784527891</v>
       </c>
       <c r="N24">
-        <v>1.012930857816101</v>
+        <v>1.000997206308044</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022772382587767</v>
+        <v>0.975809320098791</v>
       </c>
       <c r="D25">
-        <v>1.030627530378984</v>
+        <v>1.021864270493647</v>
       </c>
       <c r="E25">
-        <v>1.023481584596491</v>
+        <v>0.9858491970214299</v>
       </c>
       <c r="F25">
-        <v>1.020371584454204</v>
+        <v>0.9476863047597623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033278365943057</v>
+        <v>1.0397447879356</v>
       </c>
       <c r="J25">
-        <v>1.028444776133628</v>
+        <v>1.001179152935915</v>
       </c>
       <c r="K25">
-        <v>1.033696404487448</v>
+        <v>1.034132394959092</v>
       </c>
       <c r="L25">
-        <v>1.026573337144058</v>
+        <v>0.998671231227986</v>
       </c>
       <c r="M25">
-        <v>1.023473403583669</v>
+        <v>0.961154907489089</v>
       </c>
       <c r="N25">
-        <v>1.013444208253709</v>
+        <v>1.003888300117506</v>
       </c>
     </row>
   </sheetData>
